--- a/InputFiles/TC32_Canine_StudyNCATSCOP01-StudyPart_SampleType_FileType.xlsx
+++ b/InputFiles/TC32_Canine_StudyNCATSCOP01-StudyPart_SampleType_FileType.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davids3\newclone\sofia0324\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davids3\newclone\sofia0403\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327D74CE-F1CD-48C7-AB3A-AF178238EAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D58DDE7-BB58-4F93-B012-ECF3558EE382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -94,34 +94,6 @@
        coalesce(diag.best_response, '') AS `Response to Treatment`,
        coalesce(co.cohort_description, '') AS `Cohort`
 order by c.case_id asc
-limit 100</t>
-  </si>
-  <si>
-    <t>MATCH (p:program)&lt;--(s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
-OPTIONAL MATCH (samp:sample)--&gt;(c)
-OPTIONAL MATCH (diag:diagnosis)--&gt;(c)
-OPTIONAL MATCH (f:file)-[*]-&gt;(c)
-OPTIONAL MATCH (sf:file)--&gt;(s)
- OPTIONAL MATCH (c)--&gt;(ci:canine_individual)
-WITH DISTINCT f, sf, samp AS samp, c, demo, diag, s, p,ci
-  where s.clinical_study_designation IN ['NCATS-COP01'] and ci IS NULL and samp.summarized_sample_type in ['Whole Blood'] and sf.file_type in ['Supplemental Data File']
-OPTIONAL MATCH (s:study)&lt;-[*]-(c)&lt;--(diag:diagnosis)
-OPTIONAL MATCH (co:cohort)&lt;-[*]-(c)
-optional MATCH (samp:sample)--&gt;(c) 
-WITH DISTINCT samp AS samp, c, demo, diag
-RETURN  coalesce(samp.sample_id, '') AS `Sample ID`, 
-        coalesce(c.case_id, '') AS `Case ID`, 
-        coalesce(demo.breed,'') AS Breed,
-        coalesce(diag.disease_term,'') AS Diagnosis, 
-        coalesce(samp.sample_site, '') AS `Sample Site`,
-        coalesce(samp.summarized_sample_type, '') AS `Sample Type`,
-        coalesce(samp.specific_sample_pathology, '') AS `Pathology/Morphology`,
-        coalesce(samp.tumor_grade, '') AS `Tumor Grade`,
-        coalesce(samp.sample_chronology, '') AS `Sample Chronology`,
-        coalesce(samp.percentage_tumor, '') AS `Percentage Tumor`,
-        coalesce(samp.necropsy_sample, '') AS `Necropsy Sample`,
-        coalesce(samp.sample_preservation, '') AS `Sample Preservation`
-order by samp.sample_id asc
 limit 100</t>
   </si>
   <si>
@@ -213,6 +185,34 @@
     count(distinct samp) AS Samples,
     count(distinct cf) AS `Case Files`,
     count(distinct sf) AS `Study Files`</t>
+  </si>
+  <si>
+    <t>MATCH (p:program)&lt;--(s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
+OPTIONAL MATCH (samp:sample)--&gt;(c)
+OPTIONAL MATCH (diag:diagnosis)--&gt;(c)
+OPTIONAL MATCH (f:file)-[*]-&gt;(c)
+OPTIONAL MATCH (sf:file)--&gt;(s)
+ OPTIONAL MATCH (c)--&gt;(ci:canine_individual)
+WITH DISTINCT f, sf, samp AS samp, c, demo, diag, s, p,ci
+ where s.clinical_study_designation IN ['NCATS-COP01'] and ci IS NULL and samp.summarized_sample_type in ['Whole Blood'] and sf.file_type in ['Supplemental Data File']
+OPTIONAL MATCH (s:study)&lt;-[*]-(c)&lt;--(diag:diagnosis)
+OPTIONAL MATCH (co:cohort)&lt;-[*]-(c)
+optional MATCH (samp:sample)--&gt;(c) 
+WITH DISTINCT samp AS samp, c, demo, diag
+RETURN  coalesce(samp.sample_id, '') AS `Sample ID`, 
+        coalesce(c.case_id, '') AS `Case ID`, 
+        coalesce(demo.breed,'') AS Breed,
+        coalesce(diag.disease_term,'') AS Diagnosis, 
+        coalesce(samp.sample_site, '') AS `Sample Site`,
+        coalesce(samp.summarized_sample_type, '') AS `Sample Type`,
+        coalesce(samp.specific_sample_pathology, '') AS `Pathology/Morphology`,
+        coalesce(samp.tumor_grade, '') AS `Tumor Grade`,
+        coalesce(samp.sample_chronology, '') AS `Sample Chronology`,
+        coalesce(samp.percentage_tumor, '') AS `Percentage Tumor`,
+        coalesce(samp.necropsy_sample, '') AS `Necropsy Sample`,
+        coalesce(samp.sample_preservation, '') AS `Sample Preservation`
+order by samp.sample_id asc
+limit 100</t>
   </si>
 </sst>
 </file>
@@ -593,7 +593,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
@@ -631,7 +631,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
@@ -645,10 +645,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
@@ -662,10 +662,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
@@ -679,10 +679,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
